--- a/biology/Botanique/Melaleuca_pancheri/Melaleuca_pancheri.xlsx
+++ b/biology/Botanique/Melaleuca_pancheri/Melaleuca_pancheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melaleuca pancheri, aussi appelé Niaouli de montagne, est une espèce de plantes arbustives de la famille des Myrtaceae. Elle est endémique et ne se trouve qu'en Nouvelle-Calédonie.
 </t>
@@ -513,16 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cette espèce se présente comme un arbuste ou un petit arbre à silhouette arrondie et densément ramifiée[1], mesurant de 1 à 10 mètres de hauteur[2].
-Les jeunes feuilles sont recouvertes d'une pilosité dense et laineuse[1],[3].
-Son écorce ressemble à celle du niaouli[2].
-Feuilles
-Les feuilles sont courtement pétiolées, coriaces, oblancéolées, arrondies au sommet et atténuées à la base. Elles présentent 7 à 10 nervures parallèles[3].
-Fleurs
-Les fleurs sont groupées en pompons jaune vif au sommet des rameaux. Elles présentent des étamines longues et nombreuses, en général jaunes, parfois rouges[1],[2].
-Fruits
-Les fruits sont des capsules pubescentes, qui émergent à peine du calice[3].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se présente comme un arbuste ou un petit arbre à silhouette arrondie et densément ramifiée, mesurant de 1 à 10 mètres de hauteur.
+Les jeunes feuilles sont recouvertes d'une pilosité dense et laineuse,.
+Son écorce ressemble à celle du niaouli.
 </t>
         </is>
       </c>
@@ -548,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On rencontre cette espèce au Sud de la Grande Terre, dans la forêt humide et le maquis minier, à des altitudes allant de 100 à 700 mètres[1],[2]. L'espèce, héliophile, préfère les expositions en plein soleil[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont courtement pétiolées, coriaces, oblancéolées, arrondies au sommet et atténuées à la base. Elles présentent 7 à 10 nervures parallèles.
 </t>
         </is>
       </c>
@@ -579,13 +596,122 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont groupées en pompons jaune vif au sommet des rameaux. Elles présentent des étamines longues et nombreuses, en général jaunes, parfois rouges,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Melaleuca_pancheri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaleuca_pancheri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules pubescentes, qui émergent à peine du calice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Melaleuca_pancheri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaleuca_pancheri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette espèce au Sud de la Grande Terre, dans la forêt humide et le maquis minier, à des altitudes allant de 100 à 700 mètres,. L'espèce, héliophile, préfère les expositions en plein soleil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Melaleuca_pancheri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaleuca_pancheri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Callistemon pancheri Brongn. &amp; Gris.
-Callistemon suberosus var macrophyllum Guillaumin[2]</t>
+Callistemon suberosus var macrophyllum Guillaumin</t>
         </is>
       </c>
     </row>
